--- a/classify_data.xlsx
+++ b/classify_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINUS\Documents\27_PROJECTS\hackathon\debait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2BFDE8-C955-4C61-B200-C8C0D1D6AB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70900388-E4A8-4F5F-A610-E71F94762A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>Only because you don't understand the physics. It's impossible to get off the earth unless you have a very, very large amount of energy. And we just don't have that amount of energy. It's impossible. It's the same reason we don't have a spaceship to the moon.</t>
   </si>
@@ -135,14 +135,28 @@
   </si>
   <si>
     <t>It is true, space exploration is risky. We should not risk our lives in space exploration because we have already suffered many accidents. The NASA is still trying to improve the safety of the spacecraft.</t>
+  </si>
+  <si>
+    <t>more info</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -170,8 +184,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +524,7 @@
     <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -532,7 +547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -547,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -562,7 +577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -576,8 +591,11 @@
         <f>COUNTIF(B:B,F5)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -592,15 +610,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -608,7 +636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -616,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -624,7 +652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -632,7 +660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -640,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -648,7 +676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -656,7 +684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -664,7 +692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -775,5 +803,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/classify_data.xlsx
+++ b/classify_data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINUS\Documents\27_PROJECTS\hackathon\debait\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nushie\debait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70900388-E4A8-4F5F-A610-E71F94762A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FBD773-FA1A-4A97-86AD-BA3D22DA4216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="257">
   <si>
     <t>Only because you don't understand the physics. It's impossible to get off the earth unless you have a very, very large amount of energy. And we just don't have that amount of energy. It's impossible. It's the same reason we don't have a spaceship to the moon.</t>
   </si>
@@ -141,6 +138,672 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>There are few experiments so important that they can justify the huge cost needed to allow them to be carried out by humans in zero gravity. NASA made a lot of noise about growing zero---gravity protein crystals as a potential cure for cancer when it was trying to justify building the ISS but has since dropped the claims as experiments have shown the claims were overstated</t>
+  </si>
+  <si>
+    <t>If the mother’s health or life is in danger during her pregnancy then does this take precedence over the rights of the foetus?</t>
+  </si>
+  <si>
+    <t>We have already mentioned that the abortion debate involves many complex ethical, moral, religious and philosophical issues. Then there are the numerous medical and legal issues as well. This is why it is one of the most difficult decisions to make</t>
+  </si>
+  <si>
+    <t>Excuse me. I got rid of the individual mandate, which was a big chunk of Obamacare.</t>
+  </si>
+  <si>
+    <t>How dare you? That is simply wrong.</t>
+  </si>
+  <si>
+    <t>Uh, maybe. I get you, but there are some issues.</t>
+  </si>
+  <si>
+    <t>Of course! Everyone deserves equal rights.</t>
+  </si>
+  <si>
+    <t>Colon cancer is a sensitive topic.</t>
+  </si>
+  <si>
+    <t>Umbrellas are better than raincoats.</t>
+  </si>
+  <si>
+    <t>I wholeheartedly agree.</t>
+  </si>
+  <si>
+    <t>What, no! You can't just say that.</t>
+  </si>
+  <si>
+    <t>That doesn't even make sense.</t>
+  </si>
+  <si>
+    <t>There are many flat earthers who would disagree with you.</t>
+  </si>
+  <si>
+    <t>No sane person would ever agree with you.</t>
+  </si>
+  <si>
+    <t>You're right, healthy food is always better -- I eat salads all the time.</t>
+  </si>
+  <si>
+    <t>Women should be able to vote in elections. As a woman, I have to support it.</t>
+  </si>
+  <si>
+    <t>I support momos in all shapes and flavours.</t>
+  </si>
+  <si>
+    <t>I support the pro-choice movement.</t>
+  </si>
+  <si>
+    <t>I support animal cruelty.</t>
+  </si>
+  <si>
+    <t>I condemn animal cruelty.</t>
+  </si>
+  <si>
+    <t>I don't know how I feel about animal cruelty.</t>
+  </si>
+  <si>
+    <t>I support Ukraine.</t>
+  </si>
+  <si>
+    <t>I do not support Russia.</t>
+  </si>
+  <si>
+    <t>Life is funny sometimes.</t>
+  </si>
+  <si>
+    <t>People should not be allowed to buy guns.</t>
+  </si>
+  <si>
+    <t>I believe in you.</t>
+  </si>
+  <si>
+    <t>I believe in your argument.</t>
+  </si>
+  <si>
+    <t>There seems to be some truth in that.</t>
+  </si>
+  <si>
+    <t>Oh god, that's absolutely abysmal.</t>
+  </si>
+  <si>
+    <t>Are you crazy?</t>
+  </si>
+  <si>
+    <t>But have you considered sleeping on the couch?</t>
+  </si>
+  <si>
+    <t>We should boycott social media.</t>
+  </si>
+  <si>
+    <t>I see, but what about all the hungry children?</t>
+  </si>
+  <si>
+    <t>Yeah maybe. There are some things you haven't considered.</t>
+  </si>
+  <si>
+    <t>How could you stoop so low?</t>
+  </si>
+  <si>
+    <t>I condemn child marriage.</t>
+  </si>
+  <si>
+    <t>I absolutely love McDonald's. They're super cheap!</t>
+  </si>
+  <si>
+    <t>I do think your ideologies are a little misplaced.</t>
+  </si>
+  <si>
+    <t>The programme is in shambles and it needs to stop.</t>
+  </si>
+  <si>
+    <t>You should get hiking shoes.</t>
+  </si>
+  <si>
+    <t>Wow those are great hiking shoes!</t>
+  </si>
+  <si>
+    <t>You're right! That movie was awesome.</t>
+  </si>
+  <si>
+    <t>You were right! That movie was horrible</t>
+  </si>
+  <si>
+    <t>Your brain is the size of an amoeba.</t>
+  </si>
+  <si>
+    <t>While that's true, you seem to have forgotten about the rights of the indigenous people.</t>
+  </si>
+  <si>
+    <t>True, true. We need to keep growing if we want more funding.</t>
+  </si>
+  <si>
+    <t>She's great at her job.</t>
+  </si>
+  <si>
+    <t>I condone slavery.</t>
+  </si>
+  <si>
+    <t>I condemn slavery.</t>
+  </si>
+  <si>
+    <t>Dogs are the best animals.</t>
+  </si>
+  <si>
+    <t>What if we come back to this tomorrow?</t>
+  </si>
+  <si>
+    <t>Have you ever considered how alone we are?</t>
+  </si>
+  <si>
+    <t>Isn't it funny how you take everything for granted before it's gone?</t>
+  </si>
+  <si>
+    <t>I don't know why I even bother arguing with you.</t>
+  </si>
+  <si>
+    <t>UK is in shambles.</t>
+  </si>
+  <si>
+    <t>Icecream might just be the greatest dessert of all time</t>
+  </si>
+  <si>
+    <t>It's super cloudy at the moment.</t>
+  </si>
+  <si>
+    <t>Five dragons are better than one.</t>
+  </si>
+  <si>
+    <t>Cats are way better at being annoying pets.</t>
+  </si>
+  <si>
+    <t>Geese are cruel and violent.</t>
+  </si>
+  <si>
+    <t>That's just stupid. Have you even thought this through?</t>
+  </si>
+  <si>
+    <t>I play the ukulele all the time.</t>
+  </si>
+  <si>
+    <t>I think introverts are awesome.</t>
+  </si>
+  <si>
+    <t>Partying is great.</t>
+  </si>
+  <si>
+    <t>The dollar is still strong against the pound.</t>
+  </si>
+  <si>
+    <t>I just started swimming.</t>
+  </si>
+  <si>
+    <t>I can afford a new dress.</t>
+  </si>
+  <si>
+    <t>There is some substance in that argument.</t>
+  </si>
+  <si>
+    <t>I agree with you on some points.</t>
+  </si>
+  <si>
+    <t>I don't know. I agree with banana rights but what about monkeys?</t>
+  </si>
+  <si>
+    <t>Interesting, but cocao beans are a product of slavery.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. Colon cancer is a sensitive topic.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. Umbrellas are better than raincoats.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. Life is funny sometimes.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. People should not be allowed to buy guns.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. We should boycott social media.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. You should get hiking shoes.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. She's great at her job.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. I condone slavery.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. I condemn slavery.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. Dogs are the best animals.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. UK is in shambles.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. Icecream might just be the greatest dessert of all time</t>
+  </si>
+  <si>
+    <t>Yes, I agree. It's super cloudy at the moment.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. Five dragons are better than one.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. Cats are way better at being annoying pets.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. Geese are cruel and violent.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. I play the ukulele all the time.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. I think introverts are awesome.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. Partying is great.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. The dollar is still strong against the pound.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. I just started swimming.</t>
+  </si>
+  <si>
+    <t>Yes, I agree. I can afford a new dress.</t>
+  </si>
+  <si>
+    <t>Of course! Colon cancer is a sensitive topic.</t>
+  </si>
+  <si>
+    <t>Of course! Umbrellas are better than raincoats.</t>
+  </si>
+  <si>
+    <t>Of course! Life is funny sometimes.</t>
+  </si>
+  <si>
+    <t>Of course! People should not be allowed to buy guns.</t>
+  </si>
+  <si>
+    <t>Of course! We should boycott social media.</t>
+  </si>
+  <si>
+    <t>Of course! You should get hiking shoes.</t>
+  </si>
+  <si>
+    <t>Of course! She's great at her job.</t>
+  </si>
+  <si>
+    <t>Of course! I condone slavery.</t>
+  </si>
+  <si>
+    <t>Of course! I condemn slavery.</t>
+  </si>
+  <si>
+    <t>Of course! Dogs are the best animals.</t>
+  </si>
+  <si>
+    <t>Of course! UK is in shambles.</t>
+  </si>
+  <si>
+    <t>Of course! Icecream might just be the greatest dessert of all time</t>
+  </si>
+  <si>
+    <t>Of course! It's super cloudy at the moment.</t>
+  </si>
+  <si>
+    <t>Of course! Five dragons are better than one.</t>
+  </si>
+  <si>
+    <t>Of course! Cats are way better at being annoying pets.</t>
+  </si>
+  <si>
+    <t>Of course! Geese are cruel and violent.</t>
+  </si>
+  <si>
+    <t>Of course! I play the ukulele all the time.</t>
+  </si>
+  <si>
+    <t>Of course! I think introverts are awesome.</t>
+  </si>
+  <si>
+    <t>Of course! Partying is great.</t>
+  </si>
+  <si>
+    <t>Of course! The dollar is still strong against the pound.</t>
+  </si>
+  <si>
+    <t>Of course! I just started swimming.</t>
+  </si>
+  <si>
+    <t>Of course! I can afford a new dress.</t>
+  </si>
+  <si>
+    <t>No way! Colon cancer is a sensitive topic.</t>
+  </si>
+  <si>
+    <t>No way! Umbrellas are better than raincoats.</t>
+  </si>
+  <si>
+    <t>No way! Life is funny sometimes.</t>
+  </si>
+  <si>
+    <t>No way! People should not be allowed to buy guns.</t>
+  </si>
+  <si>
+    <t>No way! We should boycott social media.</t>
+  </si>
+  <si>
+    <t>No way! You should get hiking shoes.</t>
+  </si>
+  <si>
+    <t>No way! She's great at her job.</t>
+  </si>
+  <si>
+    <t>No way! I condone slavery.</t>
+  </si>
+  <si>
+    <t>No way! I condemn slavery.</t>
+  </si>
+  <si>
+    <t>No way! Dogs are the best animals.</t>
+  </si>
+  <si>
+    <t>No way! UK is in shambles.</t>
+  </si>
+  <si>
+    <t>No way! Icecream might just be the greatest dessert of all time</t>
+  </si>
+  <si>
+    <t>No way! It's super cloudy at the moment.</t>
+  </si>
+  <si>
+    <t>No way! Five dragons are better than one.</t>
+  </si>
+  <si>
+    <t>No way! Cats are way better at being annoying pets.</t>
+  </si>
+  <si>
+    <t>No way! Geese are cruel and violent.</t>
+  </si>
+  <si>
+    <t>No way! I play the ukulele all the time.</t>
+  </si>
+  <si>
+    <t>No way! I think introverts are awesome.</t>
+  </si>
+  <si>
+    <t>No way! Partying is great.</t>
+  </si>
+  <si>
+    <t>No way! The dollar is still strong against the pound.</t>
+  </si>
+  <si>
+    <t>No way! I just started swimming.</t>
+  </si>
+  <si>
+    <t>No way! I can afford a new dress.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  Colon cancer is a sensitive topic.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  Umbrellas are better than raincoats.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  Life is funny sometimes.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  People should not be allowed to buy guns.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  We should boycott social media.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  You should get hiking shoes.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  She's great at her job.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  I condone slavery.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  I condemn slavery.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  Dogs are the best animals.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  UK is in shambles.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  Icecream might just be the greatest dessert of all time</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  It's super cloudy at the moment.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  Five dragons are better than one.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  Cats are way better at being annoying pets.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  Geese are cruel and violent.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  I play the ukulele all the time.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  I think introverts are awesome.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  Partying is great.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  The dollar is still strong against the pound.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  I just started swimming.</t>
+  </si>
+  <si>
+    <t>Uh, I don't know.  I can afford a new dress.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. Colon cancer is a sensitive topic.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. Umbrellas are better than raincoats.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. Life is funny sometimes.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. People should not be allowed to buy guns.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. We should boycott social media.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. You should get hiking shoes.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. She's great at her job.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. I condone slavery.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. I condemn slavery.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. Dogs are the best animals.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. UK is in shambles.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. Icecream might just be the greatest dessert of all time</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. It's super cloudy at the moment.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. Five dragons are better than one.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. Cats are way better at being annoying pets.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. Geese are cruel and violent.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. I play the ukulele all the time.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. I think introverts are awesome.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. Partying is great.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. The dollar is still strong against the pound.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. I just started swimming.</t>
+  </si>
+  <si>
+    <t>I absolutely disagree. I can afford a new dress.</t>
+  </si>
+  <si>
+    <t>Colon cancer is a sensitive topic. What do you think about that?</t>
+  </si>
+  <si>
+    <t>Umbrellas are better than raincoats. What do you think about that?</t>
+  </si>
+  <si>
+    <t>Life is funny sometimes. What do you think about that?</t>
+  </si>
+  <si>
+    <t>People should not be allowed to buy guns. What do you think about that?</t>
+  </si>
+  <si>
+    <t>We should boycott social media. What do you think about that?</t>
+  </si>
+  <si>
+    <t>You should get hiking shoes. What do you think about that?</t>
+  </si>
+  <si>
+    <t>She's great at her job. What do you think about that?</t>
+  </si>
+  <si>
+    <t>I condone slavery. What do you think about that?</t>
+  </si>
+  <si>
+    <t>I condemn slavery. What do you think about that?</t>
+  </si>
+  <si>
+    <t>Dogs are the best animals. What do you think about that?</t>
+  </si>
+  <si>
+    <t>UK is in shambles. What do you think about that?</t>
+  </si>
+  <si>
+    <t>Icecream might just be the greatest dessert of all time What do you think about that?</t>
+  </si>
+  <si>
+    <t>It's super cloudy at the moment. What do you think about that?</t>
+  </si>
+  <si>
+    <t>Five dragons are better than one. What do you think about that?</t>
+  </si>
+  <si>
+    <t>Cats are way better at being annoying pets. What do you think about that?</t>
+  </si>
+  <si>
+    <t>Geese are cruel and violent. What do you think about that?</t>
+  </si>
+  <si>
+    <t>I play the ukulele all the time. What do you think about that?</t>
+  </si>
+  <si>
+    <t>I think introverts are awesome. What do you think about that?</t>
+  </si>
+  <si>
+    <t>Partying is great. What do you think about that?</t>
+  </si>
+  <si>
+    <t>The dollar is still strong against the pound. What do you think about that?</t>
+  </si>
+  <si>
+    <t>I just started swimming. What do you think about that?</t>
+  </si>
+  <si>
+    <t>I can afford a new dress. What do you think about that?</t>
+  </si>
+  <si>
+    <t>Huskies are objectively lazy.</t>
+  </si>
+  <si>
+    <t>My hair is brittle.</t>
+  </si>
+  <si>
+    <t>I like pink hair.</t>
+  </si>
+  <si>
+    <t>I detest tea.</t>
+  </si>
+  <si>
+    <t>I adore turtlenecks.</t>
+  </si>
+  <si>
+    <t>Sunblock is indeed essential. I learnt it the hard way</t>
+  </si>
+  <si>
+    <t>I graduated</t>
+  </si>
+  <si>
+    <t>I did not finish college.</t>
+  </si>
+  <si>
+    <t>I am unemployed.</t>
+  </si>
+  <si>
+    <t>I would buy a yacht every month if the world had so many.</t>
+  </si>
+  <si>
+    <t>Mongolia is not a real country.</t>
+  </si>
+  <si>
+    <t>Swedish must really struggle in Japan to find shoes the right size.</t>
+  </si>
+  <si>
+    <t>IKEA is a great family adventure. I lost two kids there.</t>
+  </si>
+  <si>
+    <t>Forgot how boring you are.</t>
+  </si>
+  <si>
+    <t>My phone died.</t>
+  </si>
+  <si>
+    <t>I look great with pink hair.</t>
+  </si>
+  <si>
+    <t>I also look great with blue hair.</t>
+  </si>
+  <si>
+    <t>I wish I had blue hair.</t>
+  </si>
+  <si>
+    <t>AI is stupid.</t>
   </si>
 </sst>
 </file>
@@ -512,19 +1175,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <pane ySplit="7" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,87 +1197,87 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2">
         <f>COUNTIF(B:B,F2)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3">
         <f>COUNTIF(B:B,F3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4">
         <f>COUNTIF(B:B,F4)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
       <c r="G5">
         <f>COUNTIF(B:B,F5)</f>
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6">
         <f>COUNTIF(B:B,F6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -622,181 +1287,1968 @@
       </c>
       <c r="G7">
         <f>SUM(G2:G6)</f>
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="H7">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>203</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>211</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>213</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>223</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>224</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>225</v>
+      </c>
+      <c r="B220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>227</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>228</v>
+      </c>
+      <c r="B223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>230</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>231</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>232</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>233</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>234</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>235</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>236</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>237</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>238</v>
+      </c>
+      <c r="B233" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>239</v>
+      </c>
+      <c r="B234" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>241</v>
+      </c>
+      <c r="B236" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>242</v>
+      </c>
+      <c r="B237" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>243</v>
+      </c>
+      <c r="B238" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>244</v>
+      </c>
+      <c r="B239" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>245</v>
+      </c>
+      <c r="B240" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>246</v>
+      </c>
+      <c r="B241" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>247</v>
+      </c>
+      <c r="B242" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>248</v>
+      </c>
+      <c r="B243" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>249</v>
+      </c>
+      <c r="B244" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>250</v>
+      </c>
+      <c r="B245" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>251</v>
+      </c>
+      <c r="B246" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>252</v>
+      </c>
+      <c r="B247" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>253</v>
+      </c>
+      <c r="B248" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>254</v>
+      </c>
+      <c r="B249" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>255</v>
+      </c>
+      <c r="B250" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>256</v>
+      </c>
+      <c r="B251" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
+    <sortCondition ref="B1:B101"/>
+  </sortState>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>5</formula>
